--- a/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2000-2002)/主营业务税金及附加.xlsx
+++ b/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2000-2002)/主营业务税金及附加.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,377 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.41427</v>
-      </c>
-      <c r="C2" t="n">
-        <v>48.2461</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.45238</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.00281</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1.37395</v>
-      </c>
-      <c r="G2" t="n">
-        <v>7.71081</v>
-      </c>
-      <c r="H2" t="n">
-        <v>5.55648</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1.53863</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.26858</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1.22075</v>
-      </c>
-      <c r="L2" t="n">
-        <v>129.76</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.4406</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.51976</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.09862</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.30339</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.00666</v>
-      </c>
-      <c r="R2" t="n">
-        <v>2.79487</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.54506</v>
-      </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="n">
-        <v>9.054880000000001</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.92107</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.03742</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.05535</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1.14819</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>4.34998</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1.71217</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1.26721</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>4.59503</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>5.58348</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>2.25357</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.02641</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0.63214</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>1.46237</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1.98581</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.12912</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0.803</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0.9193</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>18.92831</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0.38761</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.01052</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.96299</v>
-      </c>
-      <c r="C3" t="n">
-        <v>51.07166</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.54052</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>1.36882</v>
-      </c>
-      <c r="G3" t="n">
-        <v>9.08648</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.19882</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.24562</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.19748</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.19037</v>
-      </c>
-      <c r="L3" t="n">
-        <v>134.78</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.4771</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.49457</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.91091</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.26051</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.01007</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2.39592</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.67771</v>
-      </c>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="n">
-        <v>5.3532</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.63085</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.05558</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.1336</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0.7003200000000001</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>3.64695</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>2.80814</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1.36582</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>9.58985</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>5.87966</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>2.21776</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0.0033</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0.61372</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>2.49442</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>2.15451</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0.14407</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>1.51259</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0.98088</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>21.13283</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0.26315</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.014</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.56543</v>
-      </c>
-      <c r="C4" t="n">
-        <v>65.25574</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.4964</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>1.23947</v>
-      </c>
-      <c r="G4" t="n">
-        <v>10.35696</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.42308</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.04045</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.24753</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1.4298</v>
-      </c>
-      <c r="L4" t="n">
-        <v>151.87</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.30756</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.49524</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.22982</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.21021</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.01053</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.83264</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.48146</v>
-      </c>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="n">
-        <v>6.0356</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.91006</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.07034</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.15317</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.70667</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>3.39509</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1.77811</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>1.57651</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>10.49172</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6.42179</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>2.42465</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0.01851</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0.66128</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>2.0402</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>2.48674</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0.16344</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>1.07537</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>1.52734</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>22.01879</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>0.26571</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0.01573</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
